--- a/data/남성 외모 관리 방법 (가로 막대그래프).xlsx
+++ b/data/남성 외모 관리 방법 (가로 막대그래프).xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\22-P\Data Journalism\code\Grooming\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF4E0A-0D47-4735-9BCA-AA5B0D73B421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{9D24373C-84C7-44A5-8158-9C3A281B44A7}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25440" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,18 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>피부관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈썹관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체모관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출처: 남성 그루밍 트렌드 리포트 2022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,22 +40,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>손톱/발톱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성형수술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 피부관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 눈썹관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 체모관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 손톱/발톱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 성형수술</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,68 +429,68 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CA8922-708F-47A6-8FC8-9944D1743582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="17.100000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>79.8</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>40.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>7.6</v>
@@ -505,5 +499,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>